--- a/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
+++ b/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t xml:space="preserve">user</t>
   </si>
@@ -176,7 +176,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
+++ b/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t xml:space="preserve">user</t>
   </si>
@@ -31,16 +31,25 @@
     <t xml:space="preserve">results</t>
   </si>
   <si>
+    <t xml:space="preserve">john@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mary@example.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">et@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">eg@gmail.com</t>
+    <t>fail</t>
   </si>
   <si>
     <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -50,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -76,6 +85,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF5C92FF"/>
+      <name val="JetBrains Mono Medium"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFBCBEC4"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -123,12 +146,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,6 +176,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBCBEC4"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5C92FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -149,13 +244,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.69" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="27.5" collapsed="false" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -168,29 +267,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>123456</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="john@example.com"/>
+    <hyperlink ref="A3" r:id="rId2" display=" mary@example.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="et@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
+++ b/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t xml:space="preserve">user</t>
   </si>

--- a/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
+++ b/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
@@ -10,28 +10,28 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">user</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">email</t>
   </si>
   <si>
     <t xml:space="preserve">pass</t>
   </si>
   <si>
-    <t xml:space="preserve">results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">john@example.com</t>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jd@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">fail</t>
   </si>
   <si>
-    <t xml:space="preserve"> mary@example.com</t>
+    <t xml:space="preserve">jp@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">et@gmail.com</t>
@@ -59,13 +59,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+  <fonts count="5">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,28 +83,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF5C92FF"/>
-      <name val="JetBrains Mono Medium"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFBCBEC4"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -146,24 +131,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,66 +153,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFBCBEC4"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF5C92FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -247,16 +164,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.69" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="27.5" collapsed="false" outlineLevel="0"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -267,34 +180,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>123456</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -302,16 +215,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="john@example.com"/>
-    <hyperlink ref="A3" r:id="rId2" display=" mary@example.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="jd@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="jp@gmail.com"/>
     <hyperlink ref="A4" r:id="rId3" display="et@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
+++ b/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t xml:space="preserve">email</t>
   </si>

--- a/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
+++ b/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -210,7 +210,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
+++ b/src/test/java/com/cucumberFramework/step_definitions/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t xml:space="preserve">email</t>
   </si>
